--- a/scripts/december.xlsx
+++ b/scripts/december.xlsx
@@ -832,18 +832,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.51000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.01000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -863,18 +859,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.08</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.56999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>99.31999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -894,18 +886,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.49</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.29000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.81999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -925,18 +913,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>99.08</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.76000000000001</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -950,24 +934,16 @@
       <c r="AT3" s="1" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="AU3" s="1" t="n">
-        <v/>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="2" t="n"/>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>99.12</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.81</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3459,18 +3435,14 @@
       <c r="D3" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.23</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.79000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3490,18 +3462,14 @@
       <c r="O3" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.31</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.95</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3521,18 +3489,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.59</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3552,18 +3516,14 @@
       <c r="AK3" s="2" t="n">
         <v>-0.46</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.76000000000001</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.13</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3583,18 +3543,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.53</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.3</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3767,12 +3723,8 @@
       <c r="B5" s="1" t="n">
         <v>0.5344</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v/>
-      </c>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="2" t="n"/>
       <c r="E5" s="1" t="n">
         <v>0.5337</v>
       </c>
@@ -6060,18 +6012,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.11</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.48</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.14</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6091,18 +6039,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.09</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.31999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.87</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6122,18 +6066,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.64</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6153,18 +6093,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.56</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.17</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -6184,18 +6120,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.75</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.42</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -8661,18 +8593,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.33</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.73</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.2</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8692,18 +8620,14 @@
       <c r="O3" s="2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.19</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.84999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8723,18 +8647,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.01000000000001</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>97.75</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:37 ET</t>
@@ -8754,18 +8674,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.01000000000001</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>97.75</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>12/24/25</t>
@@ -8785,18 +8701,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.13</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>97.86</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -11104,24 +11016,16 @@
       <c r="B3" s="1" t="n">
         <v>98.02</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>97.92</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -11141,18 +11045,14 @@
       <c r="O3" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.27</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>97.94</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -11172,18 +11072,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.5</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:35 ET</t>
